--- a/pageElement/mobile/boss/boss_elements.xlsx
+++ b/pageElement/mobile/boss/boss_elements.xlsx
@@ -7,37 +7,34 @@
     <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="home_page" sheetId="3" r:id="rId1"/>
+    <sheet name="home" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>搜索框-百度搜索框</t>
-  </si>
-  <si>
-    <t>(By.ID,'kw')</t>
-  </si>
-  <si>
-    <t>按钮-百度一下</t>
-  </si>
-  <si>
-    <t>(By.ID,'su')</t>
-  </si>
-  <si>
-    <t>按钮-登录</t>
-  </si>
-  <si>
-    <t>(By.ID,'login-btn')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>按钮-我的</t>
+  </si>
+  <si>
+    <t>(By.ID,'com.hpbr.bosszhipin:id/iv_tab_4')</t>
+  </si>
+  <si>
+    <t>按钮-首页搜索按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//*[@class="android.widget.RelativeLayout" and @index=1]')</t>
+  </si>
+  <si>
+    <t>搜索框-首页搜索框</t>
+  </si>
+  <si>
+    <t>(By.ID,'com.hpbr.bosszhipin:id/et_search')</t>
   </si>
   <si>
     <t>校验点-登陆者</t>
-  </si>
-  <si>
-    <t>(By.XPATH,'//*[@class="hd-bg"]/div/p')</t>
   </si>
   <si>
     <t>校验点-登陆者（IE）</t>
@@ -93,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -107,28 +104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -138,31 +113,116 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,9 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,68 +245,6 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,61 +257,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,19 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,96 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +448,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,20 +475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +499,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,31 +548,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1020,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="34.3518518518519" customWidth="1"/>
-    <col min="2" max="2" width="53.75" customWidth="1"/>
+    <col min="2" max="2" width="101.018518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1061,71 +1058,71 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
